--- a/test/样本数据.xlsx
+++ b/test/样本数据.xlsx
@@ -1,1126 +1,683 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="19830" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>住院号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>职业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入院时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G0001-B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2018.5.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>155XXXXXXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起病情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>肿瘤部位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首发症状</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初步诊断时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>诊断依据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G0001-M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃</t>
   </si>
   <si>
     <t>呕吐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2018.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胃肠镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>术前评估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>术中情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>术后情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否我院病检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>病理号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否我院CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>肿瘤大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>局部侵犯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>淋巴结转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否我院MRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>局部侵犯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淋巴结转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否PET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>局部侵犯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代谢强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>淋巴转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转移部位代谢强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ALB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CA125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CA199</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CA724</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否梗阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否出血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否穿孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BMI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NRS2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>疼痛评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ECOG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>心功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>肺功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>肾功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>肝功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>凝血功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否急诊手术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手术日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>腔镜/开腹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>术式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手术时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开腹吻合时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肿瘤具体位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否联合脏器切除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>出血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>腹腔污染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>副损伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否营养管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否造瘘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否术中病理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>切除情况（R0\R1\R2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>淋巴结清扫（D1\D2\D3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特殊说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否ERAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否ICU监护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监护时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进水时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通气时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>排便时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>腹痛缓解时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尿管拔除时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>引流管拔除时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下床活动时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进食时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否肠内营养</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肠内营养支持时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TPN时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>术后出血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>腹腔感染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>切口感染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吻合口瘘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>肠梗阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胃瘫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>肺部感染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>低蛋白血症</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胃管脱出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>营养管脱出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造口并发症</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否二次手术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二次手术时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>解决问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>术后病理诊断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分化程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浸润深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>脉管癌栓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>神经侵犯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>癌结节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总淋巴结数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转移淋巴结数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HER-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>p53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ki-67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>K-RAS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N-RAS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>术后病理分期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MSI确证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基因检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出院时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出院情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>医疗费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G0001-S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>腺癌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3*5cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胃窦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3*5cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胃窦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3*5cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>异常房颤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>异常支气管炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2018.5.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>腔镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R0+吻合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胃窦前壁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>切缘阴性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>毕I式三角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是26.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开腹止血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腺癌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外周组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T4bN2M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2018.6.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>痊愈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否新辅助治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剂量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>疗程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否新辅助放疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>放疗方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>放疗疗程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>疗效评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否术前二次病检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G0001-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XXXXXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SOX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奥沙利铂200mg+S-1 1500mg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5*5Gy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>术后辅助化疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否辅助化疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>体表面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际剂量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BMI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NRS2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否复查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否复发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>处理方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否靶向药物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>药物品种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检测结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剂量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疗程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0001-A01</t>
   </si>
   <si>
     <t>奥沙利铂200mg+S-1 60mg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫赛汀</t>
   </si>
   <si>
     <t>HER2(2+)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赫赛汀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G0001-A02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G0001-A01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吻合口炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>随诊情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>随诊次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>随诊时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G0001-F01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吻合口增厚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吻合口处溃疡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吻合口高代谢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1140,17 +697,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1158,24 +727,19 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1185,106 +749,106 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1296,202 +860,268 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1525,184 +1155,185 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:DP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:120" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:120">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
     </row>
-    <row r="2" spans="1:120" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:110">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="DF2" s="4"/>
+      <c r="DF2" s="3"/>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1715,556 +1346,557 @@
     <mergeCell ref="BB1:BS1"/>
     <mergeCell ref="BT1:DP1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:DJ3"/>
   <sheetViews>
-    <sheetView topLeftCell="DA1" workbookViewId="0">
-      <selection activeCell="DH10" sqref="DH10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:114">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1" t="s">
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
     </row>
-    <row r="2" spans="1:114" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:114">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="V2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AN2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AO2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AP2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AR2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AS2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AT2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AU2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AV2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AW2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AX2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AY2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BA2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="BB2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BC2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BD2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BE2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BF2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BG2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BH2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BI2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BJ2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BL2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BM2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BN2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BO2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BP2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BR2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BS2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BT2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BU2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BV2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BW2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BX2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BY2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="CA2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="CB2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="CC2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="CD2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="CE2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CF2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CG2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CH2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CI2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CE2" s="2" t="s">
+      <c r="CK2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CL2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CG2" s="2" t="s">
+      <c r="CM2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CH2" s="2" t="s">
+      <c r="CN2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CO2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CP2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CR2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CS2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CT2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CN2" s="2" t="s">
+      <c r="CU2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CV2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CW2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CX2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CY2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CZ2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="CT2" s="2" t="s">
+      <c r="DA2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CU2" s="2" t="s">
+      <c r="DB2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CV2" s="2" t="s">
+      <c r="DC2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="CW2" s="2" t="s">
+      <c r="DD2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CX2" s="2" t="s">
+      <c r="DE2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CY2" s="2" t="s">
+      <c r="DF2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CZ2" s="4" t="s">
+      <c r="DG2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="DA2" s="2" t="s">
+      <c r="DH2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="DB2" s="2" t="s">
+      <c r="DI2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="DC2" s="2" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="DD2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:114">
+      <c r="A3" t="s">
         <v>135</v>
       </c>
-      <c r="DE2" s="2" t="s">
+      <c r="B3" t="s">
         <v>136</v>
       </c>
-      <c r="DF2" s="2" t="s">
+      <c r="C3" t="s">
         <v>137</v>
-      </c>
-      <c r="DG2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="DH2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="DI2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="DJ2" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>144</v>
       </c>
       <c r="D3">
         <v>201806061</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="Q3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="R3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="S3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="T3">
         <v>8.5</v>
       </c>
       <c r="U3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="V3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Y3">
         <v>3</v>
@@ -2300,13 +1932,13 @@
         <v>1.2</v>
       </c>
       <c r="AJ3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="AK3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="AL3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="AM3">
         <v>28.3</v>
@@ -2321,31 +1953,31 @@
         <v>1</v>
       </c>
       <c r="AQ3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="AR3" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="AS3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="AT3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="AU3" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="AV3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="AW3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="AX3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="AY3" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AZ3">
         <v>2</v>
@@ -2354,46 +1986,46 @@
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="BC3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="BD3">
         <v>50</v>
       </c>
       <c r="BE3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="BF3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="BG3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="BH3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="BI3" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="BJ3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="BK3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="BL3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BM3" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="BN3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="BO3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -2423,73 +2055,73 @@
         <v>7</v>
       </c>
       <c r="BY3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="CA3">
         <v>8</v>
       </c>
       <c r="CB3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="CC3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="CD3" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="CE3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CI3" t="s">
         <v>152</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CJ3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>144</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>153</v>
+      </c>
+      <c r="CP3" t="s">
         <v>154</v>
       </c>
-      <c r="CG3" t="s">
-        <v>154</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>152</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>178</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>152</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>171</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>148</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>180</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>181</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>182</v>
-      </c>
       <c r="CQ3" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="CR3" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="CS3" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="CT3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="CU3" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="CV3" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="CW3">
         <v>25</v>
@@ -2498,37 +2130,37 @@
         <v>6</v>
       </c>
       <c r="CY3" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="CZ3" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="DA3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="DB3">
         <v>75</v>
       </c>
       <c r="DC3" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="DD3" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="DE3" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="DF3" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="DG3" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="DH3" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="DI3" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="DJ3">
         <v>120960.35</v>
@@ -2540,301 +2172,303 @@
     <mergeCell ref="AV1:BM1"/>
     <mergeCell ref="BN1:DJ1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="11" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>207</v>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+    <row r="1" s="1" customFormat="1" spans="1:28">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+    <row r="2" s="1" customFormat="1" spans="1:28">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>205</v>
+    <row r="3" s="1" customFormat="1" spans="1:28">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="G4">
         <v>1.65</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="I4">
         <v>6.32</v>
@@ -2855,45 +2489,45 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="T4" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="W4" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="X4" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="Y4" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="G5">
         <v>1.65</v>
       </c>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="I5">
         <v>5.15</v>
@@ -2914,25 +2548,25 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="Q5" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="R5" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="S5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="T5" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="W5" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2940,106 +2574,107 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>235</v>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" t="s">
         <v>210</v>
       </c>
-      <c r="F4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H4" t="s">
-        <v>264</v>
-      </c>
       <c r="I4" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3047,7 +2682,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:J2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>